--- a/NiTiErp/wwwroot/export-files/SoDKVBDen.xlsx
+++ b/NiTiErp/wwwroot/export-files/SoDKVBDen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>vv</t>
   </si>
@@ -24,10 +24,16 @@
     <t>CÔNG TY CỔ PHẦN ĐIỆN NƯỚC AN GIANG</t>
   </si>
   <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
     <t>SỔ ĐĂNG KÝ VĂN BẢN ĐẾN</t>
   </si>
   <si>
-    <t>(Từ ngày 08-04-2017 đến ngày 08-04-2019)</t>
+    <t>(Từ ngày 12-04-2018 đến ngày 12-04-2019)</t>
   </si>
   <si>
     <t>Ngày đến</t>
@@ -464,6 +470,12 @@
   </si>
   <si>
     <t>Biên bản, qwedqwe</t>
+  </si>
+  <si>
+    <t>An Giang, ngày …… tháng …… năm 2019</t>
+  </si>
+  <si>
+    <t>Người lập</t>
   </si>
 </sst>
 </file>
@@ -474,7 +486,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -529,6 +541,12 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -754,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,10 +896,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -893,22 +914,28 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,6 +954,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="600075"/>
+          <a:ext cx="1000125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,7 +1271,7 @@
   <dimension ref="A2:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1206,52 +1282,61 @@
     <col min="4" max="4" width="23.5703125" customWidth="1" style="2"/>
     <col min="5" max="5" width="15" customWidth="1" style="3"/>
     <col min="6" max="6" width="9.28515625" customWidth="1" style="2"/>
-    <col min="7" max="7" width="43" customWidth="1" style="2"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1" style="2"/>
     <col min="8" max="8" width="25.140625" customWidth="1" style="2"/>
     <col min="9" max="9" width="11.5703125" customWidth="1" style="2"/>
     <col min="10" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" ht="11.25" customHeight="1"/>
     <row r="2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" ht="4.5" customHeight="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="H2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="41" customFormat="1">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="H3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" ht="3" customHeight="1"/>
     <row r="5" ht="21.75" customHeight="1">
-      <c r="B5" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" ht="7.5" customHeight="1">
+      <c r="B5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1">
+      <c r="B6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" ht="3.75" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1261,7 +1346,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" ht="8.25" customHeight="1">
+    <row r="8" ht="3" customHeight="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1270,66 +1355,66 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" ht="9" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+    <row r="9" ht="3" customHeight="1">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" ht="32.25" customHeight="1" s="6" customFormat="1">
       <c r="B10" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="9" customFormat="1">
       <c r="B11" s="35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="6.75" customHeight="1" s="4" customFormat="1">
@@ -1342,628 +1427,628 @@
       <c r="H12" s="24"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" ht="32" customHeight="1">
-      <c r="B13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="47" t="s">
+    <row r="13" ht="35" customHeight="1">
+      <c r="B13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="C13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="E13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="F13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="G13" s="53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" ht="32" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="H13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="47" t="s">
+      <c r="I13" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="35" customHeight="1">
+      <c r="B14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="D14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1">
+      <c r="B15" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="32" customHeight="1">
-      <c r="B15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="47" t="s">
+      <c r="I15" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1">
+      <c r="B16" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="35" customHeight="1">
+      <c r="B17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="35" customHeight="1">
+      <c r="B18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1">
+      <c r="B19" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1">
+      <c r="B20" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1">
+      <c r="B21" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1">
+      <c r="B22" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1">
+      <c r="B23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="B24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1">
+      <c r="B25" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1">
+      <c r="B26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1">
+      <c r="B27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1">
+      <c r="B28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="35" customHeight="1">
+      <c r="B29" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="35" customHeight="1">
+      <c r="B30" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="32" customHeight="1">
-      <c r="B16" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="32" customHeight="1">
-      <c r="B17" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" ht="32" customHeight="1">
-      <c r="B18" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" ht="32" customHeight="1">
-      <c r="B19" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="32" customHeight="1">
-      <c r="B20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" ht="32" customHeight="1">
-      <c r="B21" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="50" t="s">
+      <c r="I30" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="35" customHeight="1">
+      <c r="B31" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" ht="35" customHeight="1">
+      <c r="B32" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" ht="35" customHeight="1">
+      <c r="B33" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="35" customHeight="1">
+      <c r="B34" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="35" customHeight="1">
+      <c r="B35" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" ht="32" customHeight="1">
-      <c r="B22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" ht="32" customHeight="1">
-      <c r="B23" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" ht="32" customHeight="1">
-      <c r="B24" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" ht="32" customHeight="1">
-      <c r="B25" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" ht="32" customHeight="1">
-      <c r="B26" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" ht="32" customHeight="1">
-      <c r="B27" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" ht="32" customHeight="1">
-      <c r="B28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" ht="32" customHeight="1">
-      <c r="B29" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" ht="32" customHeight="1">
-      <c r="B30" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" ht="32" customHeight="1">
-      <c r="B31" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" ht="32" customHeight="1">
-      <c r="B32" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="47" t="s">
+      <c r="E35" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="35" customHeight="1">
+      <c r="B36" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" ht="32" customHeight="1">
-      <c r="B33" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" ht="32" customHeight="1">
-      <c r="B34" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" ht="32" customHeight="1">
-      <c r="B35" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" ht="32" customHeight="1">
-      <c r="B36" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>27</v>
+      <c r="G36" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="30.75" customHeight="1" s="4" customFormat="1">
@@ -1986,17 +2071,25 @@
       <c r="H38" s="20"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" ht="27" customHeight="1" s="4" customFormat="1">
+    <row r="39" ht="9" customHeight="1" s="4" customFormat="1">
       <c r="B39" s="10"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" ht="27" customHeight="1" s="4" customFormat="1">
+    <row r="40" ht="15" customHeight="1" s="4" customFormat="1">
       <c r="B40" s="10"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" ht="27" customHeight="1" s="4" customFormat="1">
+      <c r="H40" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" s="4" customFormat="1">
       <c r="B41" s="10"/>
       <c r="E41" s="5"/>
+      <c r="H41" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" ht="27" customHeight="1" s="4" customFormat="1">
       <c r="B42" s="10"/>
@@ -2048,15 +2141,20 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.2" header="0.31458333333333299" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
